--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Il6-Il6ra.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Il6-Il6ra.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>11.898632</v>
+        <v>14.956293</v>
       </c>
       <c r="H2">
-        <v>35.695896</v>
+        <v>44.868879</v>
       </c>
       <c r="I2">
-        <v>0.1819741108242693</v>
+        <v>0.195346866793292</v>
       </c>
       <c r="J2">
-        <v>0.1819741108242693</v>
+        <v>0.1953468667932919</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.940177333333333</v>
+        <v>2.318119</v>
       </c>
       <c r="N2">
-        <v>5.820532</v>
+        <v>6.954357</v>
       </c>
       <c r="O2">
-        <v>0.09618640556857148</v>
+        <v>0.1070970465647729</v>
       </c>
       <c r="P2">
-        <v>0.09618640556857148</v>
+        <v>0.1070970465647729</v>
       </c>
       <c r="Q2">
-        <v>23.08545610407467</v>
+        <v>34.670466972867</v>
       </c>
       <c r="R2">
-        <v>207.769104936672</v>
+        <v>312.034202755803</v>
       </c>
       <c r="S2">
-        <v>0.01750343562672334</v>
+        <v>0.02092107248924368</v>
       </c>
       <c r="T2">
-        <v>0.01750343562672334</v>
+        <v>0.02092107248924368</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>11.898632</v>
+        <v>14.956293</v>
       </c>
       <c r="H3">
-        <v>35.695896</v>
+        <v>44.868879</v>
       </c>
       <c r="I3">
-        <v>0.1819741108242693</v>
+        <v>0.195346866793292</v>
       </c>
       <c r="J3">
-        <v>0.1819741108242693</v>
+        <v>0.1953468667932919</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,25 +620,25 @@
         <v>1.922884666666667</v>
       </c>
       <c r="N3">
-        <v>5.768654</v>
+        <v>5.768654000000001</v>
       </c>
       <c r="O3">
-        <v>0.09532910277424163</v>
+        <v>0.0888372291002696</v>
       </c>
       <c r="P3">
-        <v>0.09532910277424163</v>
+        <v>0.0888372291002696</v>
       </c>
       <c r="Q3">
-        <v>22.87969702710933</v>
+        <v>28.759226479874</v>
       </c>
       <c r="R3">
-        <v>205.917273243984</v>
+        <v>258.833038318866</v>
       </c>
       <c r="S3">
-        <v>0.017347428713018</v>
+        <v>0.01735407435933553</v>
       </c>
       <c r="T3">
-        <v>0.017347428713018</v>
+        <v>0.01735407435933552</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>14.956293</v>
+      </c>
+      <c r="H4">
+        <v>44.868879</v>
+      </c>
+      <c r="I4">
+        <v>0.195346866793292</v>
+      </c>
+      <c r="J4">
+        <v>0.1953468667932919</v>
+      </c>
+      <c r="K4">
         <v>2</v>
       </c>
-      <c r="F4">
+      <c r="L4">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G4">
-        <v>11.898632</v>
-      </c>
-      <c r="H4">
-        <v>35.695896</v>
-      </c>
-      <c r="I4">
-        <v>0.1819741108242693</v>
-      </c>
-      <c r="J4">
-        <v>0.1819741108242693</v>
-      </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
       <c r="M4">
-        <v>0.5843806666666667</v>
+        <v>0.108471</v>
       </c>
       <c r="N4">
-        <v>1.753142</v>
+        <v>0.325413</v>
       </c>
       <c r="O4">
-        <v>0.02897130836688065</v>
+        <v>0.005011357802566427</v>
       </c>
       <c r="P4">
-        <v>0.02897130836688065</v>
+        <v>0.005011357802566428</v>
       </c>
       <c r="Q4">
-        <v>6.953330500581333</v>
+        <v>1.622324058003</v>
       </c>
       <c r="R4">
-        <v>62.57997450523199</v>
+        <v>14.600916522027</v>
       </c>
       <c r="S4">
-        <v>0.005272028079478818</v>
+        <v>0.000978953045111468</v>
       </c>
       <c r="T4">
-        <v>0.005272028079478818</v>
+        <v>0.000978953045111468</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>11.898632</v>
+        <v>14.956293</v>
       </c>
       <c r="H5">
-        <v>35.695896</v>
+        <v>44.868879</v>
       </c>
       <c r="I5">
-        <v>0.1819741108242693</v>
+        <v>0.195346866793292</v>
       </c>
       <c r="J5">
-        <v>0.1819741108242693</v>
+        <v>0.1953468667932919</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>15.72357133333333</v>
+        <v>17.29555733333333</v>
       </c>
       <c r="N5">
-        <v>47.170714</v>
+        <v>51.886672</v>
       </c>
       <c r="O5">
-        <v>0.7795131832903062</v>
+        <v>0.7990543665323911</v>
       </c>
       <c r="P5">
-        <v>0.7795131832903062</v>
+        <v>0.7990543665323911</v>
       </c>
       <c r="Q5">
-        <v>187.0889890210827</v>
+        <v>258.677423075632</v>
       </c>
       <c r="R5">
-        <v>1683.800901189744</v>
+        <v>2328.096807680688</v>
       </c>
       <c r="S5">
-        <v>0.1418512184050491</v>
+        <v>0.1560927668996013</v>
       </c>
       <c r="T5">
-        <v>0.1418512184050491</v>
+        <v>0.1560927668996013</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>150.13118</v>
       </c>
       <c r="I6">
-        <v>0.7653537534818657</v>
+        <v>0.653630228225219</v>
       </c>
       <c r="J6">
-        <v>0.7653537534818657</v>
+        <v>0.653630228225219</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.940177333333333</v>
+        <v>2.318119</v>
       </c>
       <c r="N6">
-        <v>5.820532</v>
+        <v>6.954357</v>
       </c>
       <c r="O6">
-        <v>0.09618640556857148</v>
+        <v>0.1070970465647729</v>
       </c>
       <c r="P6">
-        <v>0.09618640556857148</v>
+        <v>0.1070970465647729</v>
       </c>
       <c r="Q6">
-        <v>97.09370415419555</v>
+        <v>116.0073136168067</v>
       </c>
       <c r="R6">
-        <v>873.84333738776</v>
+        <v>1044.06582255126</v>
       </c>
       <c r="S6">
-        <v>0.07361662653583521</v>
+        <v>0.07000186698837942</v>
       </c>
       <c r="T6">
-        <v>0.07361662653583521</v>
+        <v>0.07000186698837943</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>150.13118</v>
       </c>
       <c r="I7">
-        <v>0.7653537534818657</v>
+        <v>0.653630228225219</v>
       </c>
       <c r="J7">
-        <v>0.7653537534818657</v>
+        <v>0.653630228225219</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,25 +868,25 @@
         <v>1.922884666666667</v>
       </c>
       <c r="N7">
-        <v>5.768654</v>
+        <v>5.768654000000001</v>
       </c>
       <c r="O7">
-        <v>0.09532910277424163</v>
+        <v>0.0888372291002696</v>
       </c>
       <c r="P7">
-        <v>0.09532910277424163</v>
+        <v>0.0888372291002696</v>
       </c>
       <c r="Q7">
-        <v>96.2283146701911</v>
+        <v>96.22831467019111</v>
       </c>
       <c r="R7">
-        <v>866.0548320317199</v>
+        <v>866.0548320317201</v>
       </c>
       <c r="S7">
-        <v>0.07296048662432437</v>
+        <v>0.05806669833170529</v>
       </c>
       <c r="T7">
-        <v>0.07296048662432437</v>
+        <v>0.05806669833170529</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,40 +915,40 @@
         <v>150.13118</v>
       </c>
       <c r="I8">
-        <v>0.7653537534818657</v>
+        <v>0.653630228225219</v>
       </c>
       <c r="J8">
-        <v>0.7653537534818657</v>
+        <v>0.653630228225219</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.5843806666666667</v>
+        <v>0.108471</v>
       </c>
       <c r="N8">
-        <v>1.753142</v>
+        <v>0.325413</v>
       </c>
       <c r="O8">
-        <v>0.02897130836688065</v>
+        <v>0.005011357802566427</v>
       </c>
       <c r="P8">
-        <v>0.02897130836688065</v>
+        <v>0.005011357802566428</v>
       </c>
       <c r="Q8">
-        <v>29.24458635195111</v>
+        <v>5.42829307526</v>
       </c>
       <c r="R8">
-        <v>263.20127716756</v>
+        <v>48.85463767734</v>
       </c>
       <c r="S8">
-        <v>0.02217329960187269</v>
+        <v>0.003275574944209725</v>
       </c>
       <c r="T8">
-        <v>0.02217329960187269</v>
+        <v>0.003275574944209726</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>150.13118</v>
       </c>
       <c r="I9">
-        <v>0.7653537534818657</v>
+        <v>0.653630228225219</v>
       </c>
       <c r="J9">
-        <v>0.7653537534818657</v>
+        <v>0.653630228225219</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>15.72357133333333</v>
+        <v>17.29555733333333</v>
       </c>
       <c r="N9">
-        <v>47.170714</v>
+        <v>51.886672</v>
       </c>
       <c r="O9">
-        <v>0.7795131832903062</v>
+        <v>0.7990543665323911</v>
       </c>
       <c r="P9">
-        <v>0.7795131832903062</v>
+        <v>0.7990543665323911</v>
       </c>
       <c r="Q9">
-        <v>786.8661060291688</v>
+        <v>865.5341437369956</v>
       </c>
       <c r="R9">
-        <v>7081.794954262519</v>
+        <v>7789.807293632961</v>
       </c>
       <c r="S9">
-        <v>0.5966033407198335</v>
+        <v>0.5222860879609246</v>
       </c>
       <c r="T9">
-        <v>0.5966033407198335</v>
+        <v>0.5222860879609246</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.636126666666666</v>
+        <v>10.01531766666667</v>
       </c>
       <c r="H10">
-        <v>7.908379999999999</v>
+        <v>30.045953</v>
       </c>
       <c r="I10">
-        <v>0.04031613097932699</v>
+        <v>0.1308118880876991</v>
       </c>
       <c r="J10">
-        <v>0.04031613097932699</v>
+        <v>0.1308118880876991</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.940177333333333</v>
+        <v>2.318119</v>
       </c>
       <c r="N10">
-        <v>5.820532</v>
+        <v>6.954357</v>
       </c>
       <c r="O10">
-        <v>0.09618640556857148</v>
+        <v>0.1070970465647729</v>
       </c>
       <c r="P10">
-        <v>0.09618640556857148</v>
+        <v>0.1070970465647729</v>
       </c>
       <c r="Q10">
-        <v>5.114553206462221</v>
+        <v>23.21669817413567</v>
       </c>
       <c r="R10">
-        <v>46.03097885816</v>
+        <v>208.950283567221</v>
       </c>
       <c r="S10">
-        <v>0.003877863725333195</v>
+        <v>0.01400956686975417</v>
       </c>
       <c r="T10">
-        <v>0.003877863725333195</v>
+        <v>0.01400956686975417</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.636126666666666</v>
+        <v>10.01531766666667</v>
       </c>
       <c r="H11">
-        <v>7.908379999999999</v>
+        <v>30.045953</v>
       </c>
       <c r="I11">
-        <v>0.04031613097932699</v>
+        <v>0.1308118880876991</v>
       </c>
       <c r="J11">
-        <v>0.04031613097932699</v>
+        <v>0.1308118880876991</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,25 +1116,25 @@
         <v>1.922884666666667</v>
       </c>
       <c r="N11">
-        <v>5.768654</v>
+        <v>5.768654000000001</v>
       </c>
       <c r="O11">
-        <v>0.09532910277424163</v>
+        <v>0.0888372291002696</v>
       </c>
       <c r="P11">
-        <v>0.09532910277424163</v>
+        <v>0.0888372291002696</v>
       </c>
       <c r="Q11">
-        <v>5.068967546724443</v>
+        <v>19.25830077302911</v>
       </c>
       <c r="R11">
-        <v>45.62070792051999</v>
+        <v>173.324706957262</v>
       </c>
       <c r="S11">
-        <v>0.00384330059358805</v>
+        <v>0.01162096567108575</v>
       </c>
       <c r="T11">
-        <v>0.00384330059358805</v>
+        <v>0.01162096567108575</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,46 +1157,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.636126666666666</v>
+        <v>10.01531766666667</v>
       </c>
       <c r="H12">
-        <v>7.908379999999999</v>
+        <v>30.045953</v>
       </c>
       <c r="I12">
-        <v>0.04031613097932699</v>
+        <v>0.1308118880876991</v>
       </c>
       <c r="J12">
-        <v>0.04031613097932699</v>
+        <v>0.1308118880876991</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.5843806666666667</v>
+        <v>0.108471</v>
       </c>
       <c r="N12">
-        <v>1.753142</v>
+        <v>0.325413</v>
       </c>
       <c r="O12">
-        <v>0.02897130836688065</v>
+        <v>0.005011357802566427</v>
       </c>
       <c r="P12">
-        <v>0.02897130836688065</v>
+        <v>0.005011357802566428</v>
       </c>
       <c r="Q12">
-        <v>1.540501458884444</v>
+        <v>1.086371522621</v>
       </c>
       <c r="R12">
-        <v>13.86451312996</v>
+        <v>9.777343703589001</v>
       </c>
       <c r="S12">
-        <v>0.001168011062761632</v>
+        <v>0.0006555451760367368</v>
       </c>
       <c r="T12">
-        <v>0.001168011062761632</v>
+        <v>0.0006555451760367369</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.636126666666666</v>
+        <v>10.01531766666667</v>
       </c>
       <c r="H13">
-        <v>7.908379999999999</v>
+        <v>30.045953</v>
       </c>
       <c r="I13">
-        <v>0.04031613097932699</v>
+        <v>0.1308118880876991</v>
       </c>
       <c r="J13">
-        <v>0.04031613097932699</v>
+        <v>0.1308118880876991</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>15.72357133333333</v>
+        <v>17.29555733333333</v>
       </c>
       <c r="N13">
-        <v>47.170714</v>
+        <v>51.886672</v>
       </c>
       <c r="O13">
-        <v>0.7795131832903062</v>
+        <v>0.7990543665323911</v>
       </c>
       <c r="P13">
-        <v>0.7795131832903062</v>
+        <v>0.7990543665323911</v>
       </c>
       <c r="Q13">
-        <v>41.44932568703555</v>
+        <v>173.2205009153796</v>
       </c>
       <c r="R13">
-        <v>373.04393118332</v>
+        <v>1558.984508238416</v>
       </c>
       <c r="S13">
-        <v>0.03142695559764411</v>
+        <v>0.1045258103708224</v>
       </c>
       <c r="T13">
-        <v>0.03142695559764411</v>
+        <v>0.1045258103708224</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.8079146666666667</v>
+        <v>1.547411</v>
       </c>
       <c r="H14">
-        <v>2.423744</v>
+        <v>4.642232999999999</v>
       </c>
       <c r="I14">
-        <v>0.01235600471453799</v>
+        <v>0.0202110168937901</v>
       </c>
       <c r="J14">
-        <v>0.01235600471453799</v>
+        <v>0.0202110168937901</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.940177333333333</v>
+        <v>2.318119</v>
       </c>
       <c r="N14">
-        <v>5.820532</v>
+        <v>6.954357</v>
       </c>
       <c r="O14">
-        <v>0.09618640556857148</v>
+        <v>0.1070970465647729</v>
       </c>
       <c r="P14">
-        <v>0.09618640556857148</v>
+        <v>0.1070970465647729</v>
       </c>
       <c r="Q14">
-        <v>1.567497723534222</v>
+        <v>3.587082839908999</v>
       </c>
       <c r="R14">
-        <v>14.107479511808</v>
+        <v>32.28374555918099</v>
       </c>
       <c r="S14">
-        <v>0.001188479680679732</v>
+        <v>0.00216454021739565</v>
       </c>
       <c r="T14">
-        <v>0.001188479680679732</v>
+        <v>0.00216454021739565</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.8079146666666667</v>
+        <v>1.547411</v>
       </c>
       <c r="H15">
-        <v>2.423744</v>
+        <v>4.642232999999999</v>
       </c>
       <c r="I15">
-        <v>0.01235600471453799</v>
+        <v>0.0202110168937901</v>
       </c>
       <c r="J15">
-        <v>0.01235600471453799</v>
+        <v>0.0202110168937901</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,25 +1364,25 @@
         <v>1.922884666666667</v>
       </c>
       <c r="N15">
-        <v>5.768654</v>
+        <v>5.768654000000001</v>
       </c>
       <c r="O15">
-        <v>0.09532910277424163</v>
+        <v>0.0888372291002696</v>
       </c>
       <c r="P15">
-        <v>0.09532910277424163</v>
+        <v>0.0888372291002696</v>
       </c>
       <c r="Q15">
-        <v>1.553526724508444</v>
+        <v>2.975492884931333</v>
       </c>
       <c r="R15">
-        <v>13.981740520576</v>
+        <v>26.779435964382</v>
       </c>
       <c r="S15">
-        <v>0.001177886843311206</v>
+        <v>0.001795490738143051</v>
       </c>
       <c r="T15">
-        <v>0.001177886843311206</v>
+        <v>0.00179549073814305</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,46 +1405,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.8079146666666667</v>
+        <v>1.547411</v>
       </c>
       <c r="H16">
-        <v>2.423744</v>
+        <v>4.642232999999999</v>
       </c>
       <c r="I16">
-        <v>0.01235600471453799</v>
+        <v>0.0202110168937901</v>
       </c>
       <c r="J16">
-        <v>0.01235600471453799</v>
+        <v>0.0202110168937901</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.5843806666666667</v>
+        <v>0.108471</v>
       </c>
       <c r="N16">
-        <v>1.753142</v>
+        <v>0.325413</v>
       </c>
       <c r="O16">
-        <v>0.02897130836688065</v>
+        <v>0.005011357802566427</v>
       </c>
       <c r="P16">
-        <v>0.02897130836688065</v>
+        <v>0.005011357802566428</v>
       </c>
       <c r="Q16">
-        <v>0.4721297115164445</v>
+        <v>0.167849218581</v>
       </c>
       <c r="R16">
-        <v>4.249167403648</v>
+        <v>1.510642967229</v>
       </c>
       <c r="S16">
-        <v>0.0003579696227675111</v>
+        <v>0.0001012846372084969</v>
       </c>
       <c r="T16">
-        <v>0.0003579696227675111</v>
+        <v>0.0001012846372084969</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.8079146666666667</v>
+        <v>1.547411</v>
       </c>
       <c r="H17">
-        <v>2.423744</v>
+        <v>4.642232999999999</v>
       </c>
       <c r="I17">
-        <v>0.01235600471453799</v>
+        <v>0.0202110168937901</v>
       </c>
       <c r="J17">
-        <v>0.01235600471453799</v>
+        <v>0.0202110168937901</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>15.72357133333333</v>
+        <v>17.29555733333333</v>
       </c>
       <c r="N17">
-        <v>47.170714</v>
+        <v>51.886672</v>
       </c>
       <c r="O17">
-        <v>0.7795131832903062</v>
+        <v>0.7990543665323911</v>
       </c>
       <c r="P17">
-        <v>0.7795131832903062</v>
+        <v>0.7990543665323911</v>
       </c>
       <c r="Q17">
-        <v>12.70330389257956</v>
+        <v>26.76333566873066</v>
       </c>
       <c r="R17">
-        <v>114.329735033216</v>
+        <v>240.870021018576</v>
       </c>
       <c r="S17">
-        <v>0.009631668567779538</v>
+        <v>0.0161497013010429</v>
       </c>
       <c r="T17">
-        <v>0.009631668567779538</v>
+        <v>0.0161497013010429</v>
       </c>
     </row>
   </sheetData>
